--- a/biology/Botanique/Convolvulus_canariensis/Convolvulus_canariensis.xlsx
+++ b/biology/Botanique/Convolvulus_canariensis/Convolvulus_canariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus canariensis est une espèce de plantes de la famille des Convolvulaceae, endémique des îles Canaries.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convolvulus canariensis est une liane ou un arbuste pouvant grandir jusqu’à 10 mètres. Les tiges anciennes sont ligneuses à écorce brune, et les jeunes tiges sont villeuses. Les feuilles, pétiolées, mesurant 4-10 × 2-5 cm, sont ovales à oblongues-ovales, aiguës, entières, cordées à la base, densément villeuses, les nervures sont proéminentes sur la face inférieure. Les pétioles mesurent 1 à 1,5 cm. Les fleurs sont groupées en inflorescences de 3 à 7 fleurs, en cymes axillaires et pédonculées. Les pédoncules mesurent environ 2,5 à 3,5 cm, les bractéoles sont linéaires et acuminées. Les pédicelles mesurent 5 à 18 mm. Les sépales de 8 × 4 mm sont elliptiques-rhomboïdes, apiculés et pileux. Les sépales internes sont à bords glabres et membraneux. La corolle, de 1,8-2,2 cm de long, est bleu pâle avec un centre blanc, non lobée, bandes médiopétalaires sont pileuses. Les filaments sont glandulaires. L’ovaire est peu pileux à l'apex. Le style est glabre, divisé 3-4 mm au-dessus de la base. Les stigmates mesurent environ 4 mm. La capsule est glabre. Les graines sont lisses et glabres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Convolvulus canariensis est une liane ou un arbuste pouvant grandir jusqu’à 10 mètres. Les tiges anciennes sont ligneuses à écorce brune, et les jeunes tiges sont villeuses. Les feuilles, pétiolées, mesurant 4-10 × 2-5 cm, sont ovales à oblongues-ovales, aiguës, entières, cordées à la base, densément villeuses, les nervures sont proéminentes sur la face inférieure. Les pétioles mesurent 1 à 1,5 cm. Les fleurs sont groupées en inflorescences de 3 à 7 fleurs, en cymes axillaires et pédonculées. Les pédoncules mesurent environ 2,5 à 3,5 cm, les bractéoles sont linéaires et acuminées. Les pédicelles mesurent 5 à 18 mm. Les sépales de 8 × 4 mm sont elliptiques-rhomboïdes, apiculés et pileux. Les sépales internes sont à bords glabres et membraneux. La corolle, de 1,8-2,2 cm de long, est bleu pâle avec un centre blanc, non lobée, bandes médiopétalaires sont pileuses. Les filaments sont glandulaires. L’ovaire est peu pileux à l'apex. Le style est glabre, divisé 3-4 mm au-dessus de la base. Les stigmates mesurent environ 4 mm. La capsule est glabre. Les graines sont lisses et glabres.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus canariensis a été nommé par Carl von Linné en 1753 dans Species plantarum.
-Convolvulus canariensis a pour synonymes[4] : 
+Convolvulus canariensis a pour synonymes : 
 synonymes homotypiques :
 Convolvulus pallidus Salisb., Prodr. Stirp. Chap. Allerton: 123 (1796), nom. superfl.
 Nemostima canariensis (L.) Raf., Fl. Tellur. 4: 82 (1838).
@@ -553,7 +569,7 @@
 Convolvulus pannifolius Salisb., Parad. Lond.: t. 20 (1805).
 Periphas pannifolius (Salisb.) Raf., Fl. Tellur. 4: 85 (1838).
 Convolvulus bourgaei Bolle, Bonplandia (Hannover) 9: 54 (1861).
-Le lectotype a été désigné par Sa’ad en 1967[5]: Herb. Linn. N° 218.17 (LINN).
+Le lectotype a été désigné par Sa’ad en 1967: Herb. Linn. N° 218.17 (LINN).
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convolvulus canariensis est endémique des îles Canaries[4], en particulier sur les cinq îles les plus à l’ouest : Gran Canaria, Tenerife, La Palma, La Gomera et El Hierro[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Convolvulus canariensis est endémique des îles Canaries, en particulier sur les cinq îles les plus à l’ouest : Gran Canaria, Tenerife, La Palma, La Gomera et El Hierro.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est commune dans les forêts de lauriers et autour des forêts de lauriers, entre 400 et 1000 mètres d’altitude[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est commune dans les forêts de lauriers et autour des forêts de lauriers, entre 400 et 1000 mètres d’altitude.
 </t>
         </is>
       </c>
